--- a/Lab0/TestCases-Lab0.xlsx
+++ b/Lab0/TestCases-Lab0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/aswelsh_emory_edu/Documents/Emory University/Emory College of Arts and Sciences/Academics/Fall 2020/CS 350/systems-programming/systems-programming/Lab0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E1F38630-F1DD-8241-9871-0ED6486B89FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{401F8190-AA74-534D-A090-ACADDB3F27D2}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E1F38630-F1DD-8241-9871-0ED6486B89FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05D66444-DF56-CF4A-9FFC-237057BEED46}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{F400B843-5A38-6F4D-9626-2282D4ECCCAD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Input Command</t>
   </si>
@@ -149,41 +149,50 @@
     <t>./ppmcvt -o out.pgm -g 16 dooley.ppm</t>
   </si>
   <si>
-    <t>./ppmcvt -out.ppm -i red dooley.ppm</t>
-  </si>
-  <si>
-    <t>./ppmcvt -out.ppm -i green dooley.ppm</t>
-  </si>
-  <si>
-    <t>./ppmcvt -out.ppm -i blue dooley.ppm</t>
-  </si>
-  <si>
-    <t>./ppmcvt -out.ppm -i greennn dooley.ppm</t>
-  </si>
-  <si>
-    <t>./ppmcvt -out.ppm -i yellow dooley.ppm</t>
-  </si>
-  <si>
-    <t>./ppmcvt -out.ppm -i 5 dooley.ppm</t>
-  </si>
-  <si>
-    <t>./ppmcvt -out.ppm -i dooley.ppm</t>
-  </si>
-  <si>
     <t>isolate no argument</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i red dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i green dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i blue dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i greennn dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i yellow dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i 5 dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -o out.ppm -i dooley.ppm</t>
+  </si>
+  <si>
+    <t>./ppmcvt -i -o out.ppm dooley.ppm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC297FCC-EDD0-FD40-92E0-16678E34B767}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +693,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +701,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,15 +717,20 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
